--- a/data/hotels_by_city/Houston/Houston_shard_585.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_585.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d7932560-Reviews-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-SpringHill-Suites-Houston-I-10-WestEnergy-Corridor.h10655845.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,417 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r548055299-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>7932560</t>
+  </si>
+  <si>
+    <t>548055299</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>Worse experience I have ever had at a Marriott</t>
+  </si>
+  <si>
+    <t>I requested a crib and and when we checked in, we were told that there was not cribs available. Apparently they only have 1 crib for all the hotel. It would have been nice if they would have called me and advised me so that I can make other accommodations for my 14 month granddaughter. The front desk male, said just to sleep her in the sofa sleeper and put pillows (which I had requested extra and did not get) around so she wouldn't fall. Well, she ended up falling and hitting her face and she now has a bruise. I also requested extra towels and pillows and did not get any. The following morning I asked the lady up front if there is any way, they could find me crib because I didn't want my granddaughter to fall again. It ended up they had a playpen that the lazy front desk didn't want to go get. Also, the restroom and shower in the rooms are in a weird area. They are right at the end of the beds that everyone can hear you when you pee. Their breakfast is not what I am used to at the other Springhill or Marriotts that I usually stay at. Therefore I do not recommend this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I requested a crib and and when we checked in, we were told that there was not cribs available. Apparently they only have 1 crib for all the hotel. It would have been nice if they would have called me and advised me so that I can make other accommodations for my 14 month granddaughter. The front desk male, said just to sleep her in the sofa sleeper and put pillows (which I had requested extra and did not get) around so she wouldn't fall. Well, she ended up falling and hitting her face and she now has a bruise. I also requested extra towels and pillows and did not get any. The following morning I asked the lady up front if there is any way, they could find me crib because I didn't want my granddaughter to fall again. It ended up they had a playpen that the lazy front desk didn't want to go get. Also, the restroom and shower in the rooms are in a weird area. They are right at the end of the beds that everyone can hear you when you pee. Their breakfast is not what I am used to at the other Springhill or Marriotts that I usually stay at. Therefore I do not recommend this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r530234462-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>530234462</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t>Nice Property</t>
+  </si>
+  <si>
+    <t>I was a little disappointed at check-in.  I arrived at 6:30 pm and my room wasn't ready.  I had to wait approx. 10 minutes for a room to be cleaned.  Once in my room, it is nicely decorated and very clean and comfortable.  Its a nice location, close to my office.  Not very much in way of places to eat close by.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r508255296-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>508255296</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Springhill Suites Nice Place</t>
+  </si>
+  <si>
+    <t>Nice big room new hotel very clean good location right off I-10 near a business park and not too far from the outlet mall Katy Mills.Rates were reasonable we stayed one night  on our way to San Antonio.Room has good wifi and has a refrigerator and a sofa bed area with a desk.Nice bathroom too and the breakfast was very good in the AM.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r489424932-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489424932</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>Best Value in the area</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel last weekend and it is the best value in the area.  The hotel was very clean, quite and good location.  I have stayed at the Residence Inn near here did give it a very good rating - but now the Springhill Suites will be my preferred hotel.  It was much cheaper and the best value.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r486645419-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>486645419</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Family Time</t>
+  </si>
+  <si>
+    <t>Nice newer Springhill Suites by Marriott.From front desk everyone was very helpful and knowledgeable about the area.  A little hard to find at first, but that could have been my gps.  Our rooms were serviced each day, so always spruced back up.Ask for top floor on quiet side of hotel, peaceful sleepMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Nathan O, General Manager at SpringHill Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded May 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2017</t>
+  </si>
+  <si>
+    <t>Nice newer Springhill Suites by Marriott.From front desk everyone was very helpful and knowledgeable about the area.  A little hard to find at first, but that could have been my gps.  Our rooms were serviced each day, so always spruced back up.Ask for top floor on quiet side of hotel, peaceful sleepMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r483772421-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483772421</t>
+  </si>
+  <si>
+    <t>05/12/2017</t>
+  </si>
+  <si>
+    <t>Place was empty</t>
+  </si>
+  <si>
+    <t>Stayed on a Friday night. Excellent facility, very clean, basic workout area, dumbells, treadmill elliptical Front desk very helpful. Rooms were of a modern design, sitting area in room separated from sleeping area MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed on a Friday night. Excellent facility, very clean, basic workout area, dumbells, treadmill elliptical Front desk very helpful. Rooms were of a modern design, sitting area in room separated from sleeping area More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r458182800-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458182800</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>Clean, convenient, comfortable</t>
+  </si>
+  <si>
+    <t>Was here Superbowl weekend 2017 and had a pleasant stay.  Gym had dumbbells and treadmills.  Pool is tiny.  Rooms, lobby and corridors were very clean.  Towels and bathroom were descent.  Bed was pretty comfortable.  Room was big with a pull-out couch and desk.  would recommend if working in the energy corridor.  Restaurants are all about 5-10 minutes by car.  Downtown is 30 minutes.  Airport is 40 minutes.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Nathan O, General Manager at SpringHill Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded February 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2017</t>
+  </si>
+  <si>
+    <t>Was here Superbowl weekend 2017 and had a pleasant stay.  Gym had dumbbells and treadmills.  Pool is tiny.  Rooms, lobby and corridors were very clean.  Towels and bathroom were descent.  Bed was pretty comfortable.  Room was big with a pull-out couch and desk.  would recommend if working in the energy corridor.  Restaurants are all about 5-10 minutes by car.  Downtown is 30 minutes.  Airport is 40 minutes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r444116495-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>444116495</t>
+  </si>
+  <si>
+    <t>12/13/2016</t>
+  </si>
+  <si>
+    <t>Above excellent customer service</t>
+  </si>
+  <si>
+    <t>Got a room here tonight even though I didn't have a reservation like I thought (my mistake not the hotels.)  When checking in I asked about places close by to get something quick to eat and come back for the night.  I commented I was not feeling well and the front desk supervisor Leila Marie offered to have a wrap made for me so I could get comfortable and rest.  As I was coming back down I met Leila in the hall with an awesome ham and cheese wrap, Gatorade and even gave it to me complimentary.  What great service, Leila is a text book example of going the extra mile.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Got a room here tonight even though I didn't have a reservation like I thought (my mistake not the hotels.)  When checking in I asked about places close by to get something quick to eat and come back for the night.  I commented I was not feeling well and the front desk supervisor Leila Marie offered to have a wrap made for me so I could get comfortable and rest.  As I was coming back down I met Leila in the hall with an awesome ham and cheese wrap, Gatorade and even gave it to me complimentary.  What great service, Leila is a text book example of going the extra mile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r443873177-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>443873177</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were there for a few nights for business . The rooms were laid out nicely and were large and clean. Was nice having a mini fridge. No complaints other than the hotel doesn't have a restaurant and there are none within walking distance. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r437086724-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437086724</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Comfortable and nice hotel</t>
+  </si>
+  <si>
+    <t>Located right off of the highway. Comfortable hotel that met our needs. Clean room and bathroom. Easy free parking. Nice free breakfast that included warm eggs, waffles, and the usually continental breakfast foods. Lots of cable channel options too, if you have time to watch TV. Thank you!</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r430401368-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>430401368</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>Exceptional customer service</t>
+  </si>
+  <si>
+    <t>After a hot run in the late afternoon, I came back to the hotel thirsty and dehydrated.  Unfortunately the pantry was out of Gatorade, and I returned to my room.  A few minutes later, an assistant knocked on my door and dropped off two bottles of ice cold Gatorade.  Clearly, your Guest Service supervisor, Leila-Marie, made an extra effort to get me the drinks and went the extra mile to make my visit more rewarding.  Well done!!!  Thank you, I will stay here next time in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Nathan O, General Manager at SpringHill Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded October 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2016</t>
+  </si>
+  <si>
+    <t>After a hot run in the late afternoon, I came back to the hotel thirsty and dehydrated.  Unfortunately the pantry was out of Gatorade, and I returned to my room.  A few minutes later, an assistant knocked on my door and dropped off two bottles of ice cold Gatorade.  Clearly, your Guest Service supervisor, Leila-Marie, made an extra effort to get me the drinks and went the extra mile to make my visit more rewarding.  Well done!!!  Thank you, I will stay here next time in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r416775137-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>416775137</t>
+  </si>
+  <si>
+    <t>09/10/2016</t>
+  </si>
+  <si>
+    <t>Good overnight!!!</t>
+  </si>
+  <si>
+    <t>We ended deciding last minute to stay another night in the area. The room was clean and the staff was extremely nice. I thoroughly appreciated the fact that we were able to wash our laundry on site. Our boys thought the breakfast in the morning could have been better with more variety. I guess you can't complain being the breakfast was complimentary. All in all, good place to to stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Nathan O, General Manager at SpringHill Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded September 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2016</t>
+  </si>
+  <si>
+    <t>We ended deciding last minute to stay another night in the area. The room was clean and the staff was extremely nice. I thoroughly appreciated the fact that we were able to wash our laundry on site. Our boys thought the breakfast in the morning could have been better with more variety. I guess you can't complain being the breakfast was complimentary. All in all, good place to to stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r389934120-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>389934120</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Awesome stay</t>
+  </si>
+  <si>
+    <t>This hotel is amazing and top notch.  It looked to be fairly new, nice upscale decor.  Easy to find off the interstate.  Located in a business area, not surrounded by other hotels which I liked.  Free parking.  The hotel lobby is very modern and spacious.  The vestibule had the luggage trolleys for use.  Next to the front desk was a little commissary of snacks and necessities.   The front desk clerk were always nice and polite.  The sitting area had cool furniture, nice tables.  A large panel of flat screens showed the weather daily.  There were 2 computers and a printer in this area along with where they had breakfast.  The 1st floor also had the fitness room which had 3 stability balls , each a different size, 3 treadmills, 1 bike, and 1 elliptical.   There was a flat screen tv mounted on the wall  and each machine had the iPod  link capability small TVs.   There was also a place I considered the yoga area because of the decorative artwork and yoga mats.  The fitness room was stocked with towels and had a water fountain.   There was a view of the pool from the fitness room.  I also noticed there was a fire pit too with seating around it.  The entire hotel was really clean.  No smells or noises.  The room was really nice and large.  We got the 2 queen  beds.  The room was nice and cool - cold actually...This hotel is amazing and top notch.  It looked to be fairly new, nice upscale decor.  Easy to find off the interstate.  Located in a business area, not surrounded by other hotels which I liked.  Free parking.  The hotel lobby is very modern and spacious.  The vestibule had the luggage trolleys for use.  Next to the front desk was a little commissary of snacks and necessities.   The front desk clerk were always nice and polite.  The sitting area had cool furniture, nice tables.  A large panel of flat screens showed the weather daily.  There were 2 computers and a printer in this area along with where they had breakfast.  The 1st floor also had the fitness room which had 3 stability balls , each a different size, 3 treadmills, 1 bike, and 1 elliptical.   There was a flat screen tv mounted on the wall  and each machine had the iPod  link capability small TVs.   There was also a place I considered the yoga area because of the decorative artwork and yoga mats.  The fitness room was stocked with towels and had a water fountain.   There was a view of the pool from the fitness room.  I also noticed there was a fire pit too with seating around it.  The entire hotel was really clean.  No smells or noises.  The room was really nice and large.  We got the 2 queen  beds.  The room was nice and cool - cold actually but easily adjusted.  Upon entering the room I noticed there was: a couch, movable tables,  mini fridge, microwave,  coffee maker, desk area with chair and lamp, glass pane separating the desk area from the beds,  flat screen tv, 2 nice large beds, clean sheets, each bed had the book lamps attached to them.  The bathroom was behind a sliding door which locked.  Like I said te decor was very modern and nice.  There was a decent size closet to with shelves.  The room could have passed for a really nice apartment.   I liked how quiet the place was, no loud ruckus from the other people.  The breakfast was really good, I consider it the best I've had at a hotel.  Nice, varying selection. Cereals, oatmeal,  yogurts, milk boxes (regular, 2%, and chocolate ), hot teas/coffees, muffins, bagels, bread, scrambled eggs with choice of toppings (salsa, cheese, and spinach), meat,  waffle makers x 2, juice machine, fruits (apples and bananas).  Our last 2 days they had small trays that had fresh fruit - strawberries, cantaloupe,  boiled eggs, and deli meat and cheeses.  Overall i give this place an A+.  Have no complaints at all.  Highly recommend this place, I hope the service remains the same. Checkout was easy and had options. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>This hotel is amazing and top notch.  It looked to be fairly new, nice upscale decor.  Easy to find off the interstate.  Located in a business area, not surrounded by other hotels which I liked.  Free parking.  The hotel lobby is very modern and spacious.  The vestibule had the luggage trolleys for use.  Next to the front desk was a little commissary of snacks and necessities.   The front desk clerk were always nice and polite.  The sitting area had cool furniture, nice tables.  A large panel of flat screens showed the weather daily.  There were 2 computers and a printer in this area along with where they had breakfast.  The 1st floor also had the fitness room which had 3 stability balls , each a different size, 3 treadmills, 1 bike, and 1 elliptical.   There was a flat screen tv mounted on the wall  and each machine had the iPod  link capability small TVs.   There was also a place I considered the yoga area because of the decorative artwork and yoga mats.  The fitness room was stocked with towels and had a water fountain.   There was a view of the pool from the fitness room.  I also noticed there was a fire pit too with seating around it.  The entire hotel was really clean.  No smells or noises.  The room was really nice and large.  We got the 2 queen  beds.  The room was nice and cool - cold actually...This hotel is amazing and top notch.  It looked to be fairly new, nice upscale decor.  Easy to find off the interstate.  Located in a business area, not surrounded by other hotels which I liked.  Free parking.  The hotel lobby is very modern and spacious.  The vestibule had the luggage trolleys for use.  Next to the front desk was a little commissary of snacks and necessities.   The front desk clerk were always nice and polite.  The sitting area had cool furniture, nice tables.  A large panel of flat screens showed the weather daily.  There were 2 computers and a printer in this area along with where they had breakfast.  The 1st floor also had the fitness room which had 3 stability balls , each a different size, 3 treadmills, 1 bike, and 1 elliptical.   There was a flat screen tv mounted on the wall  and each machine had the iPod  link capability small TVs.   There was also a place I considered the yoga area because of the decorative artwork and yoga mats.  The fitness room was stocked with towels and had a water fountain.   There was a view of the pool from the fitness room.  I also noticed there was a fire pit too with seating around it.  The entire hotel was really clean.  No smells or noises.  The room was really nice and large.  We got the 2 queen  beds.  The room was nice and cool - cold actually but easily adjusted.  Upon entering the room I noticed there was: a couch, movable tables,  mini fridge, microwave,  coffee maker, desk area with chair and lamp, glass pane separating the desk area from the beds,  flat screen tv, 2 nice large beds, clean sheets, each bed had the book lamps attached to them.  The bathroom was behind a sliding door which locked.  Like I said te decor was very modern and nice.  There was a decent size closet to with shelves.  The room could have passed for a really nice apartment.   I liked how quiet the place was, no loud ruckus from the other people.  The breakfast was really good, I consider it the best I've had at a hotel.  Nice, varying selection. Cereals, oatmeal,  yogurts, milk boxes (regular, 2%, and chocolate ), hot teas/coffees, muffins, bagels, bread, scrambled eggs with choice of toppings (salsa, cheese, and spinach), meat,  waffle makers x 2, juice machine, fruits (apples and bananas).  Our last 2 days they had small trays that had fresh fruit - strawberries, cantaloupe,  boiled eggs, and deli meat and cheeses.  Overall i give this place an A+.  Have no complaints at all.  Highly recommend this place, I hope the service remains the same. Checkout was easy and had options. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r383450836-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383450836</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>If I could give it 4 1/2 stars I would</t>
+  </si>
+  <si>
+    <t>Excellent facility, made even more top-notch because it is across the street from my client. This lured me from my normal brand and I will be back here.$50 a night less than the hotel I stayed in last time and top-notch all the way whereas the other hotel was dreadful. Incredible modern design of rooms, very comfortable bed. A home run all of the way.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Leila-Marie W, Front Office Manager at SpringHill Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded June 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2016</t>
+  </si>
+  <si>
+    <t>Excellent facility, made even more top-notch because it is across the street from my client. This lured me from my normal brand and I will be back here.$50 a night less than the hotel I stayed in last time and top-notch all the way whereas the other hotel was dreadful. Incredible modern design of rooms, very comfortable bed. A home run all of the way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r381086105-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381086105</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>Top Notch from beginning to end</t>
+  </si>
+  <si>
+    <t>What an excellent place to stay. We were there for an extended stay due to work (about 3 weeks) and the every staff member we had the pleasure of meeting was exceptional.  The cleaning lady that ensured the room was perfect, maintenace workers keeping the building and the rooms in the best shape, the kitchen support making sure the food is hot, fresh and plentiful and certianly the front desk staff (loved these folks the most). Shadye at the desk was excellent at making the impossible, possible and helping out even when we were away from the hotel, One of the young men at the desk told me the best place to get Margaritas in the area, and he was right.  Ask him about German food, he is the expert on that.  Another young lady helped me out as i was struggling to get the laundry finsihed.  AMAZING CUSTOMER SERVICE.  All staff went above and beyond to ensure our stay was comfortable and every need met! The service was above outstanding. This is a new location, it is very tidy, well maintained, and you can see the pride in the faces of all the staff.  The pool is TINY so do not go planning to spend time in the pool. You can take the kids to splash around, you can tan by the pool, but no room for real swimming. The gym is appropriate, the guest rooms very nice, the...What an excellent place to stay. We were there for an extended stay due to work (about 3 weeks) and the every staff member we had the pleasure of meeting was exceptional.  The cleaning lady that ensured the room was perfect, maintenace workers keeping the building and the rooms in the best shape, the kitchen support making sure the food is hot, fresh and plentiful and certianly the front desk staff (loved these folks the most). Shadye at the desk was excellent at making the impossible, possible and helping out even when we were away from the hotel, One of the young men at the desk told me the best place to get Margaritas in the area, and he was right.  Ask him about German food, he is the expert on that.  Another young lady helped me out as i was struggling to get the laundry finsihed.  AMAZING CUSTOMER SERVICE.  All staff went above and beyond to ensure our stay was comfortable and every need met! The service was above outstanding. This is a new location, it is very tidy, well maintained, and you can see the pride in the faces of all the staff.  The pool is TINY so do not go planning to spend time in the pool. You can take the kids to splash around, you can tan by the pool, but no room for real swimming. The gym is appropriate, the guest rooms very nice, the air conditioner works great (very important for Houston)  and the location of the hotel is minutes from ANYTHING you could hope for. They provide a breakfast buffet option which is typical, and the bar area was closed every evening on the weekends, not sure what that is about, but what a great place to stay. Worthy of all 5 stars and more.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>What an excellent place to stay. We were there for an extended stay due to work (about 3 weeks) and the every staff member we had the pleasure of meeting was exceptional.  The cleaning lady that ensured the room was perfect, maintenace workers keeping the building and the rooms in the best shape, the kitchen support making sure the food is hot, fresh and plentiful and certianly the front desk staff (loved these folks the most). Shadye at the desk was excellent at making the impossible, possible and helping out even when we were away from the hotel, One of the young men at the desk told me the best place to get Margaritas in the area, and he was right.  Ask him about German food, he is the expert on that.  Another young lady helped me out as i was struggling to get the laundry finsihed.  AMAZING CUSTOMER SERVICE.  All staff went above and beyond to ensure our stay was comfortable and every need met! The service was above outstanding. This is a new location, it is very tidy, well maintained, and you can see the pride in the faces of all the staff.  The pool is TINY so do not go planning to spend time in the pool. You can take the kids to splash around, you can tan by the pool, but no room for real swimming. The gym is appropriate, the guest rooms very nice, the...What an excellent place to stay. We were there for an extended stay due to work (about 3 weeks) and the every staff member we had the pleasure of meeting was exceptional.  The cleaning lady that ensured the room was perfect, maintenace workers keeping the building and the rooms in the best shape, the kitchen support making sure the food is hot, fresh and plentiful and certianly the front desk staff (loved these folks the most). Shadye at the desk was excellent at making the impossible, possible and helping out even when we were away from the hotel, One of the young men at the desk told me the best place to get Margaritas in the area, and he was right.  Ask him about German food, he is the expert on that.  Another young lady helped me out as i was struggling to get the laundry finsihed.  AMAZING CUSTOMER SERVICE.  All staff went above and beyond to ensure our stay was comfortable and every need met! The service was above outstanding. This is a new location, it is very tidy, well maintained, and you can see the pride in the faces of all the staff.  The pool is TINY so do not go planning to spend time in the pool. You can take the kids to splash around, you can tan by the pool, but no room for real swimming. The gym is appropriate, the guest rooms very nice, the air conditioner works great (very important for Houston)  and the location of the hotel is minutes from ANYTHING you could hope for. They provide a breakfast buffet option which is typical, and the bar area was closed every evening on the weekends, not sure what that is about, but what a great place to stay. Worthy of all 5 stars and more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r365706758-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365706758</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Friends Birthday</t>
+  </si>
+  <si>
+    <t>I went to Houston to visit a friend for his birthday and I found this hotel. It is a new property so the outside is beautiful! The inside is just as gorgeous and even has that new building smell to it still. I was in a king suite room that had plenty of room for at least 3 or 4 people! I loved the stand up shower in the room with all the counter space and the toilet not being right next to the shower like other places. Everything about the room was absolutely perfect! I didn't get to eat any of the free breakfast but as I walked by when checking out, it all smelled and looked really good! Located right off of I-10, this is perfect! I will definitely be back :)MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I went to Houston to visit a friend for his birthday and I found this hotel. It is a new property so the outside is beautiful! The inside is just as gorgeous and even has that new building smell to it still. I was in a king suite room that had plenty of room for at least 3 or 4 people! I loved the stand up shower in the room with all the counter space and the toilet not being right next to the shower like other places. Everything about the room was absolutely perfect! I didn't get to eat any of the free breakfast but as I walked by when checking out, it all smelled and looked really good! Located right off of I-10, this is perfect! I will definitely be back :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r362106989-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362106989</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Very Nice/Comfortable Stay</t>
+  </si>
+  <si>
+    <t>I just recently stayed here for a wedding which also happened to be the same weekend as Final Four. I have been to Houston plenty of times but never been to this area. The hotel was very nice. I wasn't aware when making the reservation that it was new, but as soon as you pull up you can tell. My check-in was very smooth, my room was very nice, spacious, clean and the bed was very very comfortable! I do like that parking is free and there is plenty of it. Housekeeping was very accommodating. Oh, and the Wi-Fi is free!  I assume the hotel was packed just based on the festivities of the weekend in the city, but it was not noisy at all. I like that it's close (maybe 5-6 miles) to a very nice mall with everything I need. I will definitely look into staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I just recently stayed here for a wedding which also happened to be the same weekend as Final Four. I have been to Houston plenty of times but never been to this area. The hotel was very nice. I wasn't aware when making the reservation that it was new, but as soon as you pull up you can tell. My check-in was very smooth, my room was very nice, spacious, clean and the bed was very very comfortable! I do like that parking is free and there is plenty of it. Housekeeping was very accommodating. Oh, and the Wi-Fi is free!  I assume the hotel was packed just based on the festivities of the weekend in the city, but it was not noisy at all. I like that it's close (maybe 5-6 miles) to a very nice mall with everything I need. I will definitely look into staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r345801442-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>345801442</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>New Hotel</t>
+  </si>
+  <si>
+    <t>Nice and New!  I love staying in a NEW HOTEL!  Yay!  Very Modern with beautiful color schemes throughout.  It is similar to the Springhill Suites at Katy Mills except it has a more bold approach.  Just beautiful!MoreShow less</t>
+  </si>
+  <si>
+    <t>Nathan O, General Manager at SpringHill Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded February 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2016</t>
+  </si>
+  <si>
+    <t>Nice and New!  I love staying in a NEW HOTEL!  Yay!  Very Modern with beautiful color schemes throughout.  It is similar to the Springhill Suites at Katy Mills except it has a more bold approach.  Just beautiful!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +952,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +984,1211 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>81</v>
+      </c>
+      <c r="X7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>149</v>
+      </c>
+      <c r="X15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>157</v>
+      </c>
+      <c r="O16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>149</v>
+      </c>
+      <c r="X16" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>164</v>
+      </c>
+      <c r="O17" t="s">
+        <v>165</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>149</v>
+      </c>
+      <c r="X17" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>149</v>
+      </c>
+      <c r="X18" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>164</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>178</v>
+      </c>
+      <c r="X19" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_585.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_585.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="251">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,54 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r591670579-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>7932560</t>
+  </si>
+  <si>
+    <t>591670579</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Good value for money</t>
+  </si>
+  <si>
+    <t>Stayed here 3 nights while in Houston on business. Great location in the Energy Corridor and fairly easy access to IH 10 whether going East or West. Breakfast was good and even had make your own waffles.  Will stay here in the future!</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r591319822-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591319822</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>very good value</t>
+  </si>
+  <si>
+    <t>Hotel lobby and room were nicely appointed, and breakfasts were very good.  Decent gym for a hotel.  Only problem we had was that the parking lot was totally flooded one afternoon/evening, after what seemed to be not a huge amount of rain.  I think, like the rest of Houston, that over-development ruined the natural drainage of the land.  Not sure if anything significant can be done.Overall, an excellent value for the area.  Also, it's among the few hotels in the area that aren't directly facing the freeway, so it endures less traffic noise.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r548055299-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>7932560</t>
-  </si>
-  <si>
     <t>548055299</t>
   </si>
   <si>
@@ -201,9 +237,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r508255296-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -222,6 +255,45 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r504949384-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504949384</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Houston Get Away</t>
+  </si>
+  <si>
+    <t>The family went down to Houston for a quick get away for my hubby's 40th.  The location of the hotel was great for getting to the Astros game - about 30 min - we did not want to stay in down town.  The hotel is in great condition with a very nice complimentary breakfast.  The pool is smaller but the kids enjoyed it.  There are 5 in our family and the room easy accommodated us and that is at times hard to find.  Overall great value!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r503690450-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503690450</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Good property. If you do have a problem they are non responsive.</t>
+  </si>
+  <si>
+    <t>Had a quick two day stay. Check in was good but I was put on the first floor which is something I try to avoid. I had a few pests in the room and the air conditioning wasn't working well on an extremely hot day. Went to the front desk once and there was no one there. Didn't have time so I called the property later in the day of my check out. No one answered the phone. Later in the week I called and was told to call back to talk to the GM or assistant gm. I called a few days later and got the assistant GM Layla on the phone. She listened to what I said and basically intimated that I should have told them about the problem when I was there or earlier. I explained I made attempts to communicate with them to no avail. To be fair I could have made more of an effort; however, I didn't have much time to waste on an extremely tight schedule. We ended the call basically agreeing to disagree and I gave her my contact information to have the gm call me. I had already left a message for the gm the prior week so I was a little suspect. A week later still no call from him so I called back only to get into the same exact argument with a front desk clerk who intimated that...Had a quick two day stay. Check in was good but I was put on the first floor which is something I try to avoid. I had a few pests in the room and the air conditioning wasn't working well on an extremely hot day. Went to the front desk once and there was no one there. Didn't have time so I called the property later in the day of my check out. No one answered the phone. Later in the week I called and was told to call back to talk to the GM or assistant gm. I called a few days later and got the assistant GM Layla on the phone. She listened to what I said and basically intimated that I should have told them about the problem when I was there or earlier. I explained I made attempts to communicate with them to no avail. To be fair I could have made more of an effort; however, I didn't have much time to waste on an extremely tight schedule. We ended the call basically agreeing to disagree and I gave her my contact information to have the gm call me. I had already left a message for the gm the prior week so I was a little suspect. A week later still no call from him so I called back only to get into the same exact argument with a front desk clerk who intimated that I had no basis for complaining about anything since I was staying on points. She rudely ended the phone call in a polite manner if that makes any sense. Didn't matter she decided she wasn't going to help me the second she picked up the phone. Really the bottom line. The hotel is good and a value; however, if you have a problem they will dodge you. That's the main problem I have with the property. There are so many others if it's close I suggest goind somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leila W, Front Office Manager at SpringHill Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded July 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2017</t>
+  </si>
+  <si>
+    <t>Had a quick two day stay. Check in was good but I was put on the first floor which is something I try to avoid. I had a few pests in the room and the air conditioning wasn't working well on an extremely hot day. Went to the front desk once and there was no one there. Didn't have time so I called the property later in the day of my check out. No one answered the phone. Later in the week I called and was told to call back to talk to the GM or assistant gm. I called a few days later and got the assistant GM Layla on the phone. She listened to what I said and basically intimated that I should have told them about the problem when I was there or earlier. I explained I made attempts to communicate with them to no avail. To be fair I could have made more of an effort; however, I didn't have much time to waste on an extremely tight schedule. We ended the call basically agreeing to disagree and I gave her my contact information to have the gm call me. I had already left a message for the gm the prior week so I was a little suspect. A week later still no call from him so I called back only to get into the same exact argument with a front desk clerk who intimated that...Had a quick two day stay. Check in was good but I was put on the first floor which is something I try to avoid. I had a few pests in the room and the air conditioning wasn't working well on an extremely hot day. Went to the front desk once and there was no one there. Didn't have time so I called the property later in the day of my check out. No one answered the phone. Later in the week I called and was told to call back to talk to the GM or assistant gm. I called a few days later and got the assistant GM Layla on the phone. She listened to what I said and basically intimated that I should have told them about the problem when I was there or earlier. I explained I made attempts to communicate with them to no avail. To be fair I could have made more of an effort; however, I didn't have much time to waste on an extremely tight schedule. We ended the call basically agreeing to disagree and I gave her my contact information to have the gm call me. I had already left a message for the gm the prior week so I was a little suspect. A week later still no call from him so I called back only to get into the same exact argument with a front desk clerk who intimated that I had no basis for complaining about anything since I was staying on points. She rudely ended the phone call in a polite manner if that makes any sense. Didn't matter she decided she wasn't going to help me the second she picked up the phone. Really the bottom line. The hotel is good and a value; however, if you have a problem they will dodge you. That's the main problem I have with the property. There are so many others if it's close I suggest goind somewhere else.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r489424932-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -288,6 +360,39 @@
     <t>Stayed on a Friday night. Excellent facility, very clean, basic workout area, dumbells, treadmill elliptical Front desk very helpful. Rooms were of a modern design, sitting area in room separated from sleeping area More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r468319802-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468319802</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Very Nice Facility and Friendly Staff</t>
+  </si>
+  <si>
+    <t>My wife and I recently stayed four nights at this location.  We were very pleased with our experience.  The staff is very friendly and the facilities are new.  They also have laundry equipment on site.  They had a full breakfast buffet.  The rooms were nice and clean.  Housekeeper was very nice and professional.  Overall this is good location and many good eating places close by.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r463304271-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463304271</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>In Houston on business. This hotel was very nice. Was clean and front desk staff was cordial and helpful. Housekeeping was great. Breakfast was the average offering, but no complaints. Would stay again if in the area again.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r458182800-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -303,9 +408,6 @@
     <t>Was here Superbowl weekend 2017 and had a pleasant stay.  Gym had dumbbells and treadmills.  Pool is tiny.  Rooms, lobby and corridors were very clean.  Towels and bathroom were descent.  Bed was pretty comfortable.  Room was big with a pull-out couch and desk.  would recommend if working in the energy corridor.  Restaurants are all about 5-10 minutes by car.  Downtown is 30 minutes.  Airport is 40 minutes.MoreShow less</t>
   </si>
   <si>
-    <t>February 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
@@ -354,6 +456,39 @@
     <t xml:space="preserve">We were there for a few nights for business . The rooms were laid out nicely and were large and clean. Was nice having a mini fridge. No complaints other than the hotel doesn't have a restaurant and there are none within walking distance. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r443853571-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>443853571</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, modern</t>
+  </si>
+  <si>
+    <t>Friendly staff. Room was spacious; we had 2 queen beds. Lots of lights, plugs, ports. I used the fitness center; treadmills were "Life fitness" and they worked great. I used the free computers in the lobby; they worked fine. The breakfast buffet was good; many food options. Parking was spacious. Easy to get in/out of the parking lot.  I was able to bluetooth the alarm clock to my phone to play pandora, which was nice. There are only 2 small quirks. Neither were worth a phone call to the front desk. The clock was really super difficult to read;also, the stopper in the sink in the bathroom would not stay up. Had to manually hold it up. Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Friendly staff. Room was spacious; we had 2 queen beds. Lots of lights, plugs, ports. I used the fitness center; treadmills were "Life fitness" and they worked great. I used the free computers in the lobby; they worked fine. The breakfast buffet was good; many food options. Parking was spacious. Easy to get in/out of the parking lot.  I was able to bluetooth the alarm clock to my phone to play pandora, which was nice. There are only 2 small quirks. Neither were worth a phone call to the front desk. The clock was really super difficult to read;also, the stopper in the sink in the bathroom would not stay up. Had to manually hold it up. Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r442803567-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442803567</t>
+  </si>
+  <si>
+    <t>12/08/2016</t>
+  </si>
+  <si>
+    <t>Value, Comfort, a great Breakfast and wonderful Staff</t>
+  </si>
+  <si>
+    <t>We searched for a comfortable and affordable home for a week and found it here.  We had never stayed at a Springhill Suite before, so we gave it a try.  We are now fans.  The hotel room was exceptional, apart from most hotels we have ever stayed.  The breakfast and the staff were just great.  But the room is what makes this hotel -- it was just plain comfortable, a midrange hotel that masquerades and performs like a luxury hotel.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r437086724-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -369,9 +504,6 @@
     <t>Located right off of the highway. Comfortable hotel that met our needs. Clean room and bathroom. Easy free parking. Nice free breakfast that included warm eggs, waffles, and the usually continental breakfast foods. Lots of cable channel options too, if you have time to watch TV. Thank you!</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r430401368-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -426,6 +558,51 @@
     <t>We ended deciding last minute to stay another night in the area. The room was clean and the staff was extremely nice. I thoroughly appreciated the fact that we were able to wash our laundry on site. Our boys thought the breakfast in the morning could have been better with more variety. I guess you can't complain being the breakfast was complimentary. All in all, good place to to stay. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r407354318-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>407354318</t>
+  </si>
+  <si>
+    <t>08/19/2016</t>
+  </si>
+  <si>
+    <t>Great location, okay hotel</t>
+  </si>
+  <si>
+    <t>Recently stayed at this location to visit family in the area.  We were a bit disappointed in the room configuration.  This hotel is modern, and has all the amenities, however, it did not offer the comfortable feel that we have associated with Marriott hotels in the past.  We will probably stay at a different brand of the Marriott chain in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Nathan O, General Manager at SpringHill Suites Houston I-10 West/Energy Corridor, responded to this reviewResponded August 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2016</t>
+  </si>
+  <si>
+    <t>Recently stayed at this location to visit family in the area.  We were a bit disappointed in the room configuration.  This hotel is modern, and has all the amenities, however, it did not offer the comfortable feel that we have associated with Marriott hotels in the past.  We will probably stay at a different brand of the Marriott chain in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r406403561-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>406403561</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>So hospitable!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First, the hotel was extremely quiet and clean (and the DirectTV is always a plus). Upon checkout, it was pouring rain. One employee volunteered to pull our car around so we and our luggage wouldn't get all wet! Another employee grabbed towels and held them over our heads while we loaded up. I have never had this kind of service at any Marriott chain before. Kudos to the 8/16/16 morning staff! They did these things with a smile and out of the kindness of their hearts. I will certainly be back when I am in the West Houston area. </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r389934120-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -441,9 +618,6 @@
     <t>This hotel is amazing and top notch.  It looked to be fairly new, nice upscale decor.  Easy to find off the interstate.  Located in a business area, not surrounded by other hotels which I liked.  Free parking.  The hotel lobby is very modern and spacious.  The vestibule had the luggage trolleys for use.  Next to the front desk was a little commissary of snacks and necessities.   The front desk clerk were always nice and polite.  The sitting area had cool furniture, nice tables.  A large panel of flat screens showed the weather daily.  There were 2 computers and a printer in this area along with where they had breakfast.  The 1st floor also had the fitness room which had 3 stability balls , each a different size, 3 treadmills, 1 bike, and 1 elliptical.   There was a flat screen tv mounted on the wall  and each machine had the iPod  link capability small TVs.   There was also a place I considered the yoga area because of the decorative artwork and yoga mats.  The fitness room was stocked with towels and had a water fountain.   There was a view of the pool from the fitness room.  I also noticed there was a fire pit too with seating around it.  The entire hotel was really clean.  No smells or noises.  The room was really nice and large.  We got the 2 queen  beds.  The room was nice and cool - cold actually...This hotel is amazing and top notch.  It looked to be fairly new, nice upscale decor.  Easy to find off the interstate.  Located in a business area, not surrounded by other hotels which I liked.  Free parking.  The hotel lobby is very modern and spacious.  The vestibule had the luggage trolleys for use.  Next to the front desk was a little commissary of snacks and necessities.   The front desk clerk were always nice and polite.  The sitting area had cool furniture, nice tables.  A large panel of flat screens showed the weather daily.  There were 2 computers and a printer in this area along with where they had breakfast.  The 1st floor also had the fitness room which had 3 stability balls , each a different size, 3 treadmills, 1 bike, and 1 elliptical.   There was a flat screen tv mounted on the wall  and each machine had the iPod  link capability small TVs.   There was also a place I considered the yoga area because of the decorative artwork and yoga mats.  The fitness room was stocked with towels and had a water fountain.   There was a view of the pool from the fitness room.  I also noticed there was a fire pit too with seating around it.  The entire hotel was really clean.  No smells or noises.  The room was really nice and large.  We got the 2 queen  beds.  The room was nice and cool - cold actually but easily adjusted.  Upon entering the room I noticed there was: a couch, movable tables,  mini fridge, microwave,  coffee maker, desk area with chair and lamp, glass pane separating the desk area from the beds,  flat screen tv, 2 nice large beds, clean sheets, each bed had the book lamps attached to them.  The bathroom was behind a sliding door which locked.  Like I said te decor was very modern and nice.  There was a decent size closet to with shelves.  The room could have passed for a really nice apartment.   I liked how quiet the place was, no loud ruckus from the other people.  The breakfast was really good, I consider it the best I've had at a hotel.  Nice, varying selection. Cereals, oatmeal,  yogurts, milk boxes (regular, 2%, and chocolate ), hot teas/coffees, muffins, bagels, bread, scrambled eggs with choice of toppings (salsa, cheese, and spinach), meat,  waffle makers x 2, juice machine, fruits (apples and bananas).  Our last 2 days they had small trays that had fresh fruit - strawberries, cantaloupe,  boiled eggs, and deli meat and cheeses.  Overall i give this place an A+.  Have no complaints at all.  Highly recommend this place, I hope the service remains the same. Checkout was easy and had options. MoreShow less</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
     <t>This hotel is amazing and top notch.  It looked to be fairly new, nice upscale decor.  Easy to find off the interstate.  Located in a business area, not surrounded by other hotels which I liked.  Free parking.  The hotel lobby is very modern and spacious.  The vestibule had the luggage trolleys for use.  Next to the front desk was a little commissary of snacks and necessities.   The front desk clerk were always nice and polite.  The sitting area had cool furniture, nice tables.  A large panel of flat screens showed the weather daily.  There were 2 computers and a printer in this area along with where they had breakfast.  The 1st floor also had the fitness room which had 3 stability balls , each a different size, 3 treadmills, 1 bike, and 1 elliptical.   There was a flat screen tv mounted on the wall  and each machine had the iPod  link capability small TVs.   There was also a place I considered the yoga area because of the decorative artwork and yoga mats.  The fitness room was stocked with towels and had a water fountain.   There was a view of the pool from the fitness room.  I also noticed there was a fire pit too with seating around it.  The entire hotel was really clean.  No smells or noises.  The room was really nice and large.  We got the 2 queen  beds.  The room was nice and cool - cold actually...This hotel is amazing and top notch.  It looked to be fairly new, nice upscale decor.  Easy to find off the interstate.  Located in a business area, not surrounded by other hotels which I liked.  Free parking.  The hotel lobby is very modern and spacious.  The vestibule had the luggage trolleys for use.  Next to the front desk was a little commissary of snacks and necessities.   The front desk clerk were always nice and polite.  The sitting area had cool furniture, nice tables.  A large panel of flat screens showed the weather daily.  There were 2 computers and a printer in this area along with where they had breakfast.  The 1st floor also had the fitness room which had 3 stability balls , each a different size, 3 treadmills, 1 bike, and 1 elliptical.   There was a flat screen tv mounted on the wall  and each machine had the iPod  link capability small TVs.   There was also a place I considered the yoga area because of the decorative artwork and yoga mats.  The fitness room was stocked with towels and had a water fountain.   There was a view of the pool from the fitness room.  I also noticed there was a fire pit too with seating around it.  The entire hotel was really clean.  No smells or noises.  The room was really nice and large.  We got the 2 queen  beds.  The room was nice and cool - cold actually but easily adjusted.  Upon entering the room I noticed there was: a couch, movable tables,  mini fridge, microwave,  coffee maker, desk area with chair and lamp, glass pane separating the desk area from the beds,  flat screen tv, 2 nice large beds, clean sheets, each bed had the book lamps attached to them.  The bathroom was behind a sliding door which locked.  Like I said te decor was very modern and nice.  There was a decent size closet to with shelves.  The room could have passed for a really nice apartment.   I liked how quiet the place was, no loud ruckus from the other people.  The breakfast was really good, I consider it the best I've had at a hotel.  Nice, varying selection. Cereals, oatmeal,  yogurts, milk boxes (regular, 2%, and chocolate ), hot teas/coffees, muffins, bagels, bread, scrambled eggs with choice of toppings (salsa, cheese, and spinach), meat,  waffle makers x 2, juice machine, fruits (apples and bananas).  Our last 2 days they had small trays that had fresh fruit - strawberries, cantaloupe,  boiled eggs, and deli meat and cheeses.  Overall i give this place an A+.  Have no complaints at all.  Highly recommend this place, I hope the service remains the same. Checkout was easy and had options. More</t>
   </si>
   <si>
@@ -493,6 +667,42 @@
   </si>
   <si>
     <t>What an excellent place to stay. We were there for an extended stay due to work (about 3 weeks) and the every staff member we had the pleasure of meeting was exceptional.  The cleaning lady that ensured the room was perfect, maintenace workers keeping the building and the rooms in the best shape, the kitchen support making sure the food is hot, fresh and plentiful and certianly the front desk staff (loved these folks the most). Shadye at the desk was excellent at making the impossible, possible and helping out even when we were away from the hotel, One of the young men at the desk told me the best place to get Margaritas in the area, and he was right.  Ask him about German food, he is the expert on that.  Another young lady helped me out as i was struggling to get the laundry finsihed.  AMAZING CUSTOMER SERVICE.  All staff went above and beyond to ensure our stay was comfortable and every need met! The service was above outstanding. This is a new location, it is very tidy, well maintained, and you can see the pride in the faces of all the staff.  The pool is TINY so do not go planning to spend time in the pool. You can take the kids to splash around, you can tan by the pool, but no room for real swimming. The gym is appropriate, the guest rooms very nice, the...What an excellent place to stay. We were there for an extended stay due to work (about 3 weeks) and the every staff member we had the pleasure of meeting was exceptional.  The cleaning lady that ensured the room was perfect, maintenace workers keeping the building and the rooms in the best shape, the kitchen support making sure the food is hot, fresh and plentiful and certianly the front desk staff (loved these folks the most). Shadye at the desk was excellent at making the impossible, possible and helping out even when we were away from the hotel, One of the young men at the desk told me the best place to get Margaritas in the area, and he was right.  Ask him about German food, he is the expert on that.  Another young lady helped me out as i was struggling to get the laundry finsihed.  AMAZING CUSTOMER SERVICE.  All staff went above and beyond to ensure our stay was comfortable and every need met! The service was above outstanding. This is a new location, it is very tidy, well maintained, and you can see the pride in the faces of all the staff.  The pool is TINY so do not go planning to spend time in the pool. You can take the kids to splash around, you can tan by the pool, but no room for real swimming. The gym is appropriate, the guest rooms very nice, the air conditioner works great (very important for Houston)  and the location of the hotel is minutes from ANYTHING you could hope for. They provide a breakfast buffet option which is typical, and the bar area was closed every evening on the weekends, not sure what that is about, but what a great place to stay. Worthy of all 5 stars and more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r379751868-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>379751868</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Brand new hotel; staff very nice;; it was empty when we went, which was fine. Two issues to note - it's almost in a business park area so nothing right next to it. But restaurants are within driving distance and  TOp Golf is nearby as well. Also, the sheets were not very good - scratchy! Even my 7 year old made a comment :) would stay again as it's convenient for what we need. MoreShow less</t>
+  </si>
+  <si>
+    <t>Brand new hotel; staff very nice;; it was empty when we went, which was fine. Two issues to note - it's almost in a business park area so nothing right next to it. But restaurants are within driving distance and  TOp Golf is nearby as well. Also, the sheets were not very good - scratchy! Even my 7 year old made a comment :) would stay again as it's convenient for what we need. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r375177659-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>375177659</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>Fresh and Comfortable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My family enjoyed our stay at this fairly new property. The room itself was spacious enough for five, and the walk-in closet allowed us to keep our luggage and things out of the way. Bathroom was nice and large. A minor issue was that when closed, the sliding bathroom door left a small crevice that anyone in the sitting area could see through. Our room included a fridge and microwave. Complimentary breakfast included eggs, daily variety of breakfast meats, potatoes, waffles, oatmeal, fruits and cereals. Staff was helpful and friendly. </t>
+  </si>
+  <si>
+    <t>May 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7932560-r365706758-SpringHill_Suites_Houston_I_10_West_Energy_Corridor-Houston_Texas.html</t>
@@ -1093,7 +1303,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1103,23 +1313,17 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1135,7 +1339,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1144,37 +1348,37 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1182,7 +1386,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1198,7 +1402,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1207,37 +1411,37 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
       <c r="S4" t="n">
         <v>5</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1261,7 +1465,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1270,27 +1474,29 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
-      </c>
-      <c r="L5" t="s">
-        <v>72</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
       <c r="Q5" t="n">
         <v>4</v>
       </c>
@@ -1298,7 +1504,7 @@
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1306,7 +1512,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1322,7 +1528,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1331,43 +1537,45 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>78</v>
       </c>
-      <c r="L6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>80</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>81</v>
-      </c>
-      <c r="X6" t="s">
-        <v>82</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1383,7 +1591,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1392,25 +1600,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1421,14 +1629,10 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>81</v>
-      </c>
-      <c r="X7" t="s">
-        <v>82</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -1444,7 +1648,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1453,49 +1657,49 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
         <v>3</v>
       </c>
-      <c r="N8" t="s">
-        <v>95</v>
-      </c>
-      <c r="O8" t="s">
-        <v>96</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="s"/>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="X8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -1511,7 +1715,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1520,29 +1724,29 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
@@ -1556,7 +1760,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -1572,7 +1776,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1581,25 +1785,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1610,10 +1814,14 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>105</v>
+      </c>
+      <c r="X10" t="s">
+        <v>106</v>
+      </c>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
@@ -1629,7 +1837,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1638,25 +1846,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1667,10 +1875,14 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>105</v>
+      </c>
+      <c r="X11" t="s">
+        <v>106</v>
+      </c>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
@@ -1686,7 +1898,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1695,29 +1907,27 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="n">
         <v>4</v>
@@ -1730,14 +1940,10 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>124</v>
-      </c>
-      <c r="X12" t="s">
-        <v>125</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
@@ -1753,7 +1959,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1762,22 +1968,22 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="O13" t="s">
         <v>53</v>
@@ -1791,14 +1997,10 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>133</v>
-      </c>
-      <c r="X13" t="s">
-        <v>134</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
@@ -1814,7 +2016,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1823,39 +2025,49 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>131</v>
+      </c>
+      <c r="X14" t="s">
+        <v>132</v>
+      </c>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
@@ -1871,7 +2083,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1880,49 +2092,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
         <v>5</v>
       </c>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>149</v>
-      </c>
-      <c r="X15" t="s">
-        <v>150</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
@@ -1938,7 +2144,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1947,49 +2153,39 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="O16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>149</v>
-      </c>
-      <c r="X16" t="s">
-        <v>150</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
@@ -2005,7 +2201,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2014,49 +2210,45 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="O17" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>149</v>
-      </c>
-      <c r="X17" t="s">
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
         <v>150</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="18">
@@ -2072,7 +2264,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2081,30 +2273,30 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
@@ -2114,14 +2306,10 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>149</v>
-      </c>
-      <c r="X18" t="s">
-        <v>150</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19">
@@ -2137,7 +2325,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2146,49 +2334,799 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="J19" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>168</v>
+      </c>
+      <c r="X20" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>177</v>
+      </c>
+      <c r="X21" t="s">
         <v>178</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y21" t="s">
         <v>179</v>
       </c>
-      <c r="Y19" t="s">
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
         <v>180</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>185</v>
+      </c>
+      <c r="O22" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>186</v>
+      </c>
+      <c r="X22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s">
+        <v>199</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>185</v>
+      </c>
+      <c r="O24" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>202</v>
+      </c>
+      <c r="J25" t="s">
+        <v>203</v>
+      </c>
+      <c r="K25" t="s">
+        <v>204</v>
+      </c>
+      <c r="L25" t="s">
+        <v>205</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>206</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>207</v>
+      </c>
+      <c r="X25" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>211</v>
+      </c>
+      <c r="J26" t="s">
+        <v>212</v>
+      </c>
+      <c r="K26" t="s">
+        <v>213</v>
+      </c>
+      <c r="L26" t="s">
+        <v>214</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>215</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>207</v>
+      </c>
+      <c r="X26" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" t="s">
+        <v>219</v>
+      </c>
+      <c r="K27" t="s">
+        <v>220</v>
+      </c>
+      <c r="L27" t="s">
+        <v>221</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>206</v>
+      </c>
+      <c r="O27" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>207</v>
+      </c>
+      <c r="X27" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>223</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>224</v>
+      </c>
+      <c r="J28" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" t="s">
+        <v>226</v>
+      </c>
+      <c r="L28" t="s">
+        <v>227</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>228</v>
+      </c>
+      <c r="O28" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>230</v>
+      </c>
+      <c r="J29" t="s">
+        <v>231</v>
+      </c>
+      <c r="K29" t="s">
+        <v>232</v>
+      </c>
+      <c r="L29" t="s">
+        <v>233</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>234</v>
+      </c>
+      <c r="O29" t="s">
+        <v>235</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>207</v>
+      </c>
+      <c r="X29" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>237</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>238</v>
+      </c>
+      <c r="J30" t="s">
+        <v>239</v>
+      </c>
+      <c r="K30" t="s">
+        <v>240</v>
+      </c>
+      <c r="L30" t="s">
+        <v>241</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>215</v>
+      </c>
+      <c r="O30" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>207</v>
+      </c>
+      <c r="X30" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63914</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>243</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>244</v>
+      </c>
+      <c r="J31" t="s">
+        <v>245</v>
+      </c>
+      <c r="K31" t="s">
+        <v>246</v>
+      </c>
+      <c r="L31" t="s">
+        <v>247</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>234</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>248</v>
+      </c>
+      <c r="X31" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
